--- a/22354073_梁凯_移动机器人规划与控制期末作业/22354073_梁凯_实验结果.xlsx
+++ b/22354073_梁凯_移动机器人规划与控制期末作业/22354073_梁凯_实验结果.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cosette\Desktop\移动机器人规划与控制大作业1.25\学号_姓名_移动机器人规划与控制期末作业\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cosette\Desktop\移动机器人规划与控制大作业1.25\git\22354073_梁凯_移动机器人规划与控制期末作业\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69955C93-6CFC-492D-B285-90C84E685F21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E28E4826-1DDD-45CB-963B-5722952B5D6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7770" yWindow="3360" windowWidth="10270" windowHeight="9970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16170" yWindow="3230" windowWidth="10270" windowHeight="9970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -392,7 +392,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -435,19 +435,19 @@
         <v>8</v>
       </c>
       <c r="C2">
-        <v>3.3187700939818897E-2</v>
+        <v>3.6291695034110297E-2</v>
       </c>
       <c r="D2">
-        <v>74.319327592849703</v>
+        <v>73.210107326507497</v>
       </c>
       <c r="E2">
-        <v>32.931170274719499</v>
+        <v>32.367413342673601</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.191564051768357</v>
+        <v>0.496108141740293</v>
       </c>
       <c r="H2" t="s">
         <v>9</v>
